--- a/data/data_2000.xlsx
+++ b/data/data_2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC382B74-3926-C049-A5A7-7A53AA6EC217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0EC9F-68CA-814E-87E1-B92EC9BACAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2000" yWindow="-18500" windowWidth="30240" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
   </bookViews>
@@ -16308,11 +16308,11 @@
       </c>
       <c r="P2" s="11" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT("'data'!$F$" &amp; $A$1)</f>
-        <v>21.45</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="13">
         <f ca="1">IF(-(M2-R2+P2)&lt;0, -(M2-R2+P2), 0)</f>
-        <v>-8077.2968350608826</v>
+        <v>-8076.8468350608828</v>
       </c>
       <c r="R2" s="17" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDIRECT("'data'!$D$" &amp; $A$1)</f>
@@ -16449,19 +16449,19 @@
       <c r="O5" s="16"/>
       <c r="P5" s="11" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("'data'!$M$" &amp; $A$1)*parameters!$B$15</f>
-        <v>2090.34</v>
+        <v>1705.2</v>
       </c>
       <c r="Q5" s="13" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">-INDIRECT("'data'!$N$" &amp; $A$1)*parameters!$B$15</f>
-        <v>-5685.96</v>
+        <v>-3114.44</v>
       </c>
       <c r="R5" s="16">
         <f ca="1">SUM(M5:Q5)</f>
-        <v>333.66567320139256</v>
+        <v>2520.0456732013922</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>333.66567320139256</v>
+        <v>2520.0456732013922</v>
       </c>
       <c r="T5" s="35"/>
       <c r="U5" s="8"/>
@@ -16597,11 +16597,11 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14">
         <f ca="1">R10/J19</f>
-        <v>1335.8213170751535</v>
+        <v>1335.8362801859907</v>
       </c>
       <c r="K9" s="14">
         <f ca="1">R11/K19</f>
-        <v>13312.238682924846</v>
+        <v>13312.223719814008</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="16">
@@ -16647,11 +16647,11 @@
       <c r="K10" s="14"/>
       <c r="L10" s="13">
         <f ca="1">R10-P10-Q10</f>
-        <v>-1382.7800000000002</v>
+        <v>1631.7</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1382.7800000000002</v>
+        <v>1631.7</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16">
@@ -16660,11 +16660,11 @@
       </c>
       <c r="P10" s="11" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("'data'!$U$" &amp; $A$1)*parameters!$B$15</f>
-        <v>5060.72</v>
+        <v>1789.48</v>
       </c>
       <c r="Q10" s="13" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">-INDIRECT("'data'!$V$" &amp; $A$1)*parameters!$B$15</f>
-        <v>-2486.2599999999998</v>
+        <v>-2229.5</v>
       </c>
       <c r="R10" s="16" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT("'data'!$T$" &amp; $A$1)*parameters!$B$15</f>
@@ -16692,11 +16692,11 @@
       <c r="K11" s="14"/>
       <c r="L11" s="13">
         <f ca="1">R11-P11-Q11</f>
-        <v>2932.3063726884766</v>
+        <v>3069.3599999999988</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2932.3063726884766</v>
+        <v>3069.3599999999988</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16">
@@ -16705,19 +16705,19 @@
       </c>
       <c r="P11" s="11" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("'data'!$X$" &amp; $A$1)*parameters!$B$15</f>
-        <v>14699.02</v>
+        <v>13902.28</v>
       </c>
       <c r="Q11" s="13" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">-INDIRECT("'data'!$Y$" &amp; $A$1)*parameters!$B$15</f>
-        <v>-5755.54</v>
+        <v>-5096</v>
       </c>
       <c r="R11" s="16" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDIRECT("'data'!$W$" &amp; $A$1)*parameters!$B$15</f>
-        <v>11875.786372688477</v>
+        <v>11875.64</v>
       </c>
       <c r="S11" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>11875.786372688475</v>
+        <v>11875.64</v>
       </c>
       <c r="T11" s="7"/>
     </row>
@@ -16739,7 +16739,7 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19">
         <f ca="1">R12-P12-Q12</f>
-        <v>1102.4102805120901</v>
+        <v>4053.8875999999991</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="21" cm="1">
@@ -16752,11 +16752,11 @@
       </c>
       <c r="R12" s="16">
         <f ca="1">L10*parameters!$B$10+L11*parameters!$B$11</f>
-        <v>1221.9702805120896</v>
+        <v>4173.4475999999986</v>
       </c>
       <c r="S12" s="16">
         <f t="shared" ref="S12:S18" ca="1" si="4">SUM(M12:Q12)</f>
-        <v>1221.9702805120896</v>
+        <v>4173.4475999999977</v>
       </c>
       <c r="T12" s="7"/>
     </row>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="E13" s="9">
         <f ca="1">-(E18-R5)</f>
-        <v>-41.239577586688938</v>
+        <v>-311.46631915972239</v>
       </c>
       <c r="F13" s="9">
         <f ca="1">-(F18-R6)</f>
@@ -16801,7 +16801,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="9">
         <f t="shared" ref="M13:M17" ca="1" si="5">SUM(B13:L13)</f>
-        <v>-788.25708584896483</v>
+        <v>-1058.4838274219983</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -16809,11 +16809,11 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="9">
         <f t="shared" ref="R13:R18" ca="1" si="6">SUM(M13:Q13)</f>
-        <v>-788.25708584896483</v>
+        <v>-1058.4838274219983</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>-788.25708584896483</v>
+        <v>-1058.4838274219983</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -16830,34 +16830,34 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14">
         <f ca="1">-(J18-R10)</f>
-        <v>-144.14131707515344</v>
+        <v>-144.15628018599068</v>
       </c>
       <c r="K14" s="14">
         <f ca="1">-(K18-R11)</f>
-        <v>-1436.4523102363692</v>
+        <v>-1436.5837198140089</v>
       </c>
       <c r="L14" s="13">
         <f ca="1">-(L18-R12)</f>
-        <v>-327.55609217638676</v>
+        <v>-527.61239999999998</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>-1908.1497194879094</v>
+        <v>-2108.3523999999998</v>
       </c>
       <c r="N14" s="16">
         <f ca="1">-E16</f>
-        <v>1533.2444686998278</v>
+        <v>-723.15959236111485</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>-374.9052507880815</v>
+        <v>-2831.5119923611146</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>-374.9052507880815</v>
+        <v>-2831.5119923611146</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -16869,7 +16869,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14">
         <f ca="1">-(J14+K14)-L14</f>
-        <v>1908.1497194879094</v>
+        <v>2108.3523999999998</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -16880,7 +16880,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1908.1497194879094</v>
+        <v>2108.3523999999998</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -16888,11 +16888,11 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1908.1497194879094</v>
+        <v>2108.3523999999998</v>
       </c>
       <c r="S15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1908.1497194879094</v>
+        <v>2108.3523999999998</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -16904,7 +16904,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14">
         <f ca="1">E18-E15</f>
-        <v>-1533.2444686998278</v>
+        <v>723.15959236111485</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -16915,7 +16915,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>-1533.2444686998278</v>
+        <v>723.15959236111485</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -16923,11 +16923,11 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>-1533.2444686998278</v>
+        <v>723.15959236111485</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>-1533.2444686998278</v>
+        <v>723.15959236111485</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">$R$5/parameters!$B$4</f>
-        <v>374.9052507880815</v>
+        <v>2831.5119923611146</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ref="F18:L18" ca="1" si="7">SUM(F$2:F$12)</f>
@@ -17003,19 +17003,19 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>1335.8213170751535</v>
+        <v>1335.8362801859907</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>13312.238682924846</v>
+        <v>13312.223719814008</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>1549.5263726884764</v>
+        <v>4701.0599999999986</v>
       </c>
       <c r="M18" s="17">
         <f ca="1">SUM(B18:L18)</f>
-        <v>48090.004131738824</v>
+        <v>53698.144500623384</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -17023,11 +17023,11 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>48090.004131738824</v>
+        <v>53698.144500623384</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>48090.004131738824</v>
+        <v>53698.144500623384</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -17068,15 +17068,15 @@
       </c>
       <c r="J19" s="39">
         <f ca="1">(R10+R11)/(R9-P9-Q9)</f>
-        <v>0.89209536093438158</v>
+        <v>0.89208536830133134</v>
       </c>
       <c r="K19" s="39">
         <f ca="1">J19</f>
-        <v>0.89209536093438158</v>
+        <v>0.89208536830133134</v>
       </c>
       <c r="L19" s="40">
         <f ca="1">1-(-L14)/L18</f>
-        <v>0.78860889498249276</v>
+        <v>0.88776735459662282</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="42"/>
@@ -19889,7 +19889,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>21.45</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1">
         <v>8471</v>
@@ -21927,10 +21927,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>2133</v>
+        <v>1740</v>
       </c>
       <c r="N25" s="1">
-        <v>5802</v>
+        <v>3178</v>
       </c>
       <c r="O25" s="1">
         <v>8910</v>
@@ -21951,19 +21951,19 @@
         <v>1216</v>
       </c>
       <c r="U25" s="1">
-        <v>5164</v>
+        <v>1826</v>
       </c>
       <c r="V25" s="1">
-        <v>2537</v>
+        <v>2275</v>
       </c>
       <c r="W25" s="1">
-        <v>12118.149359886202</v>
+        <v>12118</v>
       </c>
       <c r="X25" s="1">
-        <v>14999</v>
+        <v>14186</v>
       </c>
       <c r="Y25" s="1">
-        <v>5873</v>
+        <v>5200</v>
       </c>
       <c r="Z25" s="1">
         <v>5484</v>
